--- a/example_data/EPA/label_corrected/000432-01514-20160920_2018-12-07_222320.xlsx
+++ b/example_data/EPA/label_corrected/000432-01514-20160920_2018-12-07_222320.xlsx
@@ -772,7 +772,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions || Pollinator</t>
+          <t>application instructions || env warning - species || pollinator</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
